--- a/PracticeAutomation/TestData/excelsheet.xlsx
+++ b/PracticeAutomation/TestData/excelsheet.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{211047D8-CE0D-478A-B14E-F5E3A1246151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="11655" windowHeight="5265"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="11685" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Email</t>
   </si>
@@ -35,13 +36,43 @@
   </si>
   <si>
     <t>savitashri77@gmail.com</t>
+  </si>
+  <si>
+    <t>rekhaviravel04@gmail.com</t>
+  </si>
+  <si>
+    <t>12rekha</t>
+  </si>
+  <si>
+    <t>mail2rekhaviravel@gmail.com</t>
+  </si>
+  <si>
+    <t>kind123</t>
+  </si>
+  <si>
+    <t>nareshramesh08@gmail.com</t>
+  </si>
+  <si>
+    <t>dewspriya12@gmail.com</t>
+  </si>
+  <si>
+    <t>dew410&amp;</t>
+  </si>
+  <si>
+    <t>naresh$12</t>
+  </si>
+  <si>
+    <t>raajivkrish12@gmail.com</t>
+  </si>
+  <si>
+    <t>krish123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +84,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -81,9 +118,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -91,6 +129,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -137,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,9 +215,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,6 +267,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -378,20 +460,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -407,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -415,34 +497,80 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{F827D614-04D2-4B15-9EED-A9504FF56806}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{8E80A53E-2B82-4DB3-BDEB-C0F500C01384}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{9AF0BB98-A247-4FC6-9D89-792957D52AF2}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{B4AB17CB-235B-4E31-9B27-EE07C31E3A23}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{826B56A0-DB5B-470A-8806-5A127334A7F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PracticeAutomation/TestData/excelsheet.xlsx
+++ b/PracticeAutomation/TestData/excelsheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{211047D8-CE0D-478A-B14E-F5E3A1246151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B6331DCA-EA94-406E-87C9-80E4379106CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="11685" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="11715" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Email</t>
   </si>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>krish123</t>
+  </si>
+  <si>
+    <t>prasanna13@gmail.com</t>
+  </si>
+  <si>
+    <t>sai123</t>
+  </si>
+  <si>
+    <t>viravelmani23@gmail.com</t>
+  </si>
+  <si>
+    <t>samy342</t>
+  </si>
+  <si>
+    <t>malarvizhi76@gmail.com</t>
+  </si>
+  <si>
+    <t>vizhi12</t>
   </si>
 </sst>
 </file>
@@ -461,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +555,30 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -546,9 +588,12 @@
     <hyperlink ref="A6" r:id="rId5" xr:uid="{9AF0BB98-A247-4FC6-9D89-792957D52AF2}"/>
     <hyperlink ref="A7" r:id="rId6" xr:uid="{B4AB17CB-235B-4E31-9B27-EE07C31E3A23}"/>
     <hyperlink ref="A8" r:id="rId7" xr:uid="{826B56A0-DB5B-470A-8806-5A127334A7F7}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{49CE287B-010C-41DD-89A0-5D825D360CBF}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{F6BCCF29-933D-4E57-976E-9B3F8E6540BF}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{C318D18A-E3E5-4233-9E6A-4D906DDE1C28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
